--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-system_structure.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-system_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8221" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8221" uniqueCount="590">
   <si>
     <t>类名</t>
   </si>
@@ -1489,7 +1489,7 @@
     <t>refreshCache()</t>
   </si>
   <si>
-    <t>export(javax.servlet.http.HttpServletResponse)</t>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.domain.SysConfig)</t>
   </si>
   <si>
     <t>edit(com.ruoyi.system.domain.SysConfig)</t>
@@ -1507,6 +1507,9 @@
     <t>com.ruoyi.system.controller.SysDictDataController</t>
   </si>
   <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysDictData)</t>
+  </si>
+  <si>
     <t>add(com.ruoyi.system.api.domain.SysDictData)</t>
   </si>
   <si>
@@ -1528,6 +1531,9 @@
     <t>clean()</t>
   </si>
   <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysLogininfor)</t>
+  </si>
+  <si>
     <t>list(com.ruoyi.system.api.domain.SysLogininfor)</t>
   </si>
   <si>
@@ -1564,6 +1570,9 @@
     <t>add(com.ruoyi.system.api.domain.SysRole)</t>
   </si>
   <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysRole)</t>
+  </si>
+  <si>
     <t>optionselect()</t>
   </si>
   <si>
@@ -1618,6 +1627,9 @@
     <t>com.ruoyi.system.controller.SysDictTypeController</t>
   </si>
   <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysDictType)</t>
+  </si>
+  <si>
     <t>list(com.ruoyi.system.api.domain.SysDictType)</t>
   </si>
   <si>
@@ -1636,6 +1648,9 @@
     <t>list(com.ruoyi.system.domain.SysPost)</t>
   </si>
   <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.domain.SysPost)</t>
+  </si>
+  <si>
     <t>add(com.ruoyi.system.domain.SysPost)</t>
   </si>
   <si>
@@ -1645,6 +1660,9 @@
     <t>changeStatus(com.ruoyi.system.api.domain.SysUser)</t>
   </si>
   <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
     <t>edit(com.ruoyi.system.api.domain.SysUser)</t>
   </si>
   <si>
@@ -1715,6 +1733,9 @@
   </si>
   <si>
     <t>list(com.ruoyi.system.api.domain.SysOperLog)</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysOperLog)</t>
   </si>
   <si>
     <t>add(com.ruoyi.system.api.domain.SysOperLog)</t>
@@ -20008,7 +20029,7 @@
         <v>494</v>
       </c>
       <c r="B11" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -20022,7 +20043,7 @@
         <v>494</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -20036,7 +20057,7 @@
         <v>494</v>
       </c>
       <c r="B13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -20064,7 +20085,7 @@
         <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -20078,7 +20099,7 @@
         <v>494</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -20089,10 +20110,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -20103,10 +20124,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -20117,10 +20138,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B19" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -20131,7 +20152,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B20" t="s">
         <v>491</v>
@@ -20145,10 +20166,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -20159,10 +20180,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B22" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -20173,10 +20194,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -20187,10 +20208,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -20201,7 +20222,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B25" t="s">
         <v>486</v>
@@ -20215,10 +20236,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -20229,10 +20250,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B27" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -20243,10 +20264,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B28" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -20257,10 +20278,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B29" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -20271,7 +20292,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B30" t="s">
         <v>491</v>
@@ -20285,10 +20306,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -20299,10 +20320,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B32" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -20313,10 +20334,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B33" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -20327,10 +20348,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B34" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -20341,10 +20362,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B35" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -20355,10 +20376,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B36" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -20369,10 +20390,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B37" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -20383,10 +20404,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B38" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -20397,10 +20418,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B39" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -20411,10 +20432,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B40" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -20425,10 +20446,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B41" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -20439,7 +20460,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B42" t="s">
         <v>486</v>
@@ -20453,10 +20474,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B43" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -20467,10 +20488,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B44" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -20481,10 +20502,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B45" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -20495,10 +20516,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B46" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -20509,10 +20530,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B47" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -20523,10 +20544,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B48" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -20537,10 +20558,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B49" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -20551,10 +20572,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B50" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -20565,7 +20586,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B51" t="s">
         <v>486</v>
@@ -20579,7 +20600,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B52" t="s">
         <v>488</v>
@@ -20593,10 +20614,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B53" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -20607,7 +20628,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B54" t="s">
         <v>491</v>
@@ -20621,10 +20642,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B55" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -20635,10 +20656,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B56" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -20649,10 +20670,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -20663,10 +20684,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B58" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -20677,10 +20698,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B59" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -20691,7 +20712,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B60" t="s">
         <v>486</v>
@@ -20705,7 +20726,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B61" t="s">
         <v>491</v>
@@ -20719,10 +20740,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B62" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -20733,10 +20754,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B63" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -20747,10 +20768,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B64" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -20761,10 +20782,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B65" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -20775,10 +20796,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -20789,7 +20810,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B67" t="s">
         <v>486</v>
@@ -20803,10 +20824,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B68" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -20817,10 +20838,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B69" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -20831,10 +20852,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B70" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -20845,10 +20866,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B71" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -20859,10 +20880,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -20873,7 +20894,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B73" t="s">
         <v>491</v>
@@ -20887,7 +20908,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B74" t="s">
         <v>247</v>
@@ -20901,10 +20922,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B75" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -20915,10 +20936,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B76" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -20929,38 +20950,38 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B77" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B78" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B79" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -20971,7 +20992,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B80" t="s">
         <v>486</v>
@@ -20985,10 +21006,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B81" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -20999,10 +21020,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B82" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -21013,7 +21034,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B83" t="s">
         <v>491</v>
@@ -21027,10 +21048,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B84" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -21041,10 +21062,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B85" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -21055,10 +21076,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -21069,10 +21090,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -21083,7 +21104,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B88" t="s">
         <v>486</v>
@@ -21097,10 +21118,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B89" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -21111,10 +21132,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B90" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -21125,10 +21146,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B91" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -21139,10 +21160,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -21153,10 +21174,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -21167,10 +21188,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B94" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -21181,7 +21202,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B95" t="s">
         <v>491</v>
@@ -21195,10 +21216,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B96" t="s">
-        <v>489</v>
+        <v>571</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -21209,10 +21230,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B97" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -21236,19 +21257,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2">
@@ -21265,7 +21286,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3">
@@ -21282,7 +21303,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
@@ -21299,7 +21320,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -21316,7 +21337,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
@@ -21333,7 +21354,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
@@ -21350,7 +21371,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8">
@@ -21367,7 +21388,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9">
@@ -21384,7 +21405,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -21401,7 +21422,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11">
@@ -21418,7 +21439,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12">
@@ -21435,7 +21456,7 @@
         <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13">
@@ -21452,7 +21473,7 @@
         <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
@@ -21469,7 +21490,7 @@
         <v>381</v>
       </c>
       <c r="E14" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
@@ -21486,7 +21507,7 @@
         <v>394</v>
       </c>
       <c r="E15" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16">
@@ -21503,7 +21524,7 @@
         <v>385</v>
       </c>
       <c r="E16" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
@@ -21520,7 +21541,7 @@
         <v>391</v>
       </c>
       <c r="E17" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
@@ -21537,7 +21558,7 @@
         <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
@@ -21554,7 +21575,7 @@
         <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20">
@@ -21571,7 +21592,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21">
@@ -21588,7 +21609,7 @@
         <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22">
@@ -21605,7 +21626,7 @@
         <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23">
@@ -21622,7 +21643,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24">
@@ -21639,7 +21660,7 @@
         <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25">
@@ -21656,7 +21677,7 @@
         <v>345</v>
       </c>
       <c r="E25" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26">
@@ -21673,7 +21694,7 @@
         <v>355</v>
       </c>
       <c r="E26" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27">
@@ -21690,7 +21711,7 @@
         <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28">
@@ -21707,7 +21728,7 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29">
@@ -21724,7 +21745,7 @@
         <v>328</v>
       </c>
       <c r="E29" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30">
@@ -21741,7 +21762,7 @@
         <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31">
@@ -21758,7 +21779,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
@@ -21775,7 +21796,7 @@
         <v>303</v>
       </c>
       <c r="E32" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33">
@@ -21792,7 +21813,7 @@
         <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34">
@@ -21809,7 +21830,7 @@
         <v>355</v>
       </c>
       <c r="E34" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35">
@@ -21826,7 +21847,7 @@
         <v>345</v>
       </c>
       <c r="E35" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36">
@@ -21843,7 +21864,7 @@
         <v>358</v>
       </c>
       <c r="E36" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37">
@@ -21860,7 +21881,7 @@
         <v>328</v>
       </c>
       <c r="E37" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38">
@@ -21877,7 +21898,7 @@
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39">
@@ -21894,7 +21915,7 @@
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40">
@@ -21911,7 +21932,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41">
@@ -21928,7 +21949,7 @@
         <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42">
@@ -21945,7 +21966,7 @@
         <v>327</v>
       </c>
       <c r="E42" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43">
@@ -21962,7 +21983,7 @@
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44">
@@ -21979,7 +22000,7 @@
         <v>355</v>
       </c>
       <c r="E44" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45">
@@ -21996,7 +22017,7 @@
         <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46">
@@ -22013,7 +22034,7 @@
         <v>194</v>
       </c>
       <c r="E46" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47">
@@ -22030,7 +22051,7 @@
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48">
@@ -22047,7 +22068,7 @@
         <v>281</v>
       </c>
       <c r="E48" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49">
@@ -22064,7 +22085,7 @@
         <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50">
@@ -22081,7 +22102,7 @@
         <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51">
@@ -22098,7 +22119,7 @@
         <v>355</v>
       </c>
       <c r="E51" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52">
@@ -22115,7 +22136,7 @@
         <v>359</v>
       </c>
       <c r="E52" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53">
@@ -22132,7 +22153,7 @@
         <v>355</v>
       </c>
       <c r="E53" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54">
@@ -22149,7 +22170,7 @@
         <v>359</v>
       </c>
       <c r="E54" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55">
@@ -22166,7 +22187,7 @@
         <v>358</v>
       </c>
       <c r="E55" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56">
@@ -22183,7 +22204,7 @@
         <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57">
@@ -22200,7 +22221,7 @@
         <v>355</v>
       </c>
       <c r="E57" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58">
@@ -22217,7 +22238,7 @@
         <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59">
@@ -22234,7 +22255,7 @@
         <v>328</v>
       </c>
       <c r="E59" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60">
@@ -22251,7 +22272,7 @@
         <v>355</v>
       </c>
       <c r="E60" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61">
@@ -22268,7 +22289,7 @@
         <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62">
@@ -22285,7 +22306,7 @@
         <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63">
@@ -22302,7 +22323,7 @@
         <v>359</v>
       </c>
       <c r="E63" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64">
@@ -22319,7 +22340,7 @@
         <v>358</v>
       </c>
       <c r="E64" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65">
@@ -22336,7 +22357,7 @@
         <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66">
@@ -22353,7 +22374,7 @@
         <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67">
@@ -22370,7 +22391,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68">
@@ -22387,7 +22408,7 @@
         <v>345</v>
       </c>
       <c r="E68" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69">
@@ -22404,7 +22425,7 @@
         <v>349</v>
       </c>
       <c r="E69" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70">
@@ -22421,7 +22442,7 @@
         <v>355</v>
       </c>
       <c r="E70" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71">
@@ -22438,7 +22459,7 @@
         <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72">
@@ -22455,7 +22476,7 @@
         <v>354</v>
       </c>
       <c r="E72" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73">
@@ -22472,7 +22493,7 @@
         <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74">
@@ -22489,7 +22510,7 @@
         <v>188</v>
       </c>
       <c r="E74" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75">
@@ -22506,7 +22527,7 @@
         <v>329</v>
       </c>
       <c r="E75" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76">
@@ -22523,7 +22544,7 @@
         <v>198</v>
       </c>
       <c r="E76" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77">
@@ -22540,7 +22561,7 @@
         <v>319</v>
       </c>
       <c r="E77" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78">
@@ -22557,7 +22578,7 @@
         <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79">
@@ -22574,7 +22595,7 @@
         <v>324</v>
       </c>
       <c r="E79" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80">
@@ -22591,7 +22612,7 @@
         <v>321</v>
       </c>
       <c r="E80" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81">
@@ -22608,7 +22629,7 @@
         <v>332</v>
       </c>
       <c r="E81" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="82">
@@ -22625,7 +22646,7 @@
         <v>349</v>
       </c>
       <c r="E82" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83">
@@ -22642,7 +22663,7 @@
         <v>317</v>
       </c>
       <c r="E83" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84">
@@ -22659,7 +22680,7 @@
         <v>361</v>
       </c>
       <c r="E84" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85">
@@ -22676,7 +22697,7 @@
         <v>328</v>
       </c>
       <c r="E85" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="86">
@@ -22693,7 +22714,7 @@
         <v>331</v>
       </c>
       <c r="E86" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87">
@@ -22710,7 +22731,7 @@
         <v>308</v>
       </c>
       <c r="E87" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88">
@@ -22727,7 +22748,7 @@
         <v>359</v>
       </c>
       <c r="E88" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89">
@@ -22744,7 +22765,7 @@
         <v>323</v>
       </c>
       <c r="E89" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90">
@@ -22761,7 +22782,7 @@
         <v>320</v>
       </c>
       <c r="E90" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91">
@@ -22778,7 +22799,7 @@
         <v>303</v>
       </c>
       <c r="E91" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92">
@@ -22795,7 +22816,7 @@
         <v>195</v>
       </c>
       <c r="E92" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93">
@@ -22812,7 +22833,7 @@
         <v>327</v>
       </c>
       <c r="E93" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94">
@@ -22829,7 +22850,7 @@
         <v>355</v>
       </c>
       <c r="E94" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95">
@@ -22846,7 +22867,7 @@
         <v>191</v>
       </c>
       <c r="E95" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96">
@@ -22863,7 +22884,7 @@
         <v>196</v>
       </c>
       <c r="E96" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97">
@@ -22880,7 +22901,7 @@
         <v>124</v>
       </c>
       <c r="E97" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98">
@@ -22897,7 +22918,7 @@
         <v>129</v>
       </c>
       <c r="E98" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99">
@@ -22914,7 +22935,7 @@
         <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100">
@@ -22931,7 +22952,7 @@
         <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101">
@@ -22948,7 +22969,7 @@
         <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102">
@@ -22965,7 +22986,7 @@
         <v>129</v>
       </c>
       <c r="E102" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103">
@@ -22982,7 +23003,7 @@
         <v>129</v>
       </c>
       <c r="E103" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="104">
@@ -22999,7 +23020,7 @@
         <v>131</v>
       </c>
       <c r="E104" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105">
@@ -23016,7 +23037,7 @@
         <v>206</v>
       </c>
       <c r="E105" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106">
@@ -23033,7 +23054,7 @@
         <v>212</v>
       </c>
       <c r="E106" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107">
@@ -23050,7 +23071,7 @@
         <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108">
@@ -23067,7 +23088,7 @@
         <v>128</v>
       </c>
       <c r="E108" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109">
@@ -23084,7 +23105,7 @@
         <v>211</v>
       </c>
       <c r="E109" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110">
@@ -23101,7 +23122,7 @@
         <v>127</v>
       </c>
       <c r="E110" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111">
@@ -23118,7 +23139,7 @@
         <v>136</v>
       </c>
       <c r="E111" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112">
@@ -23135,7 +23156,7 @@
         <v>134</v>
       </c>
       <c r="E112" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113">
@@ -23152,7 +23173,7 @@
         <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114">
@@ -23169,7 +23190,7 @@
         <v>126</v>
       </c>
       <c r="E114" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115">
@@ -23186,7 +23207,7 @@
         <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116">
@@ -23203,7 +23224,7 @@
         <v>134</v>
       </c>
       <c r="E116" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117">
@@ -23220,7 +23241,7 @@
         <v>132</v>
       </c>
       <c r="E117" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118">
@@ -23237,7 +23258,7 @@
         <v>137</v>
       </c>
       <c r="E118" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119">
@@ -23254,7 +23275,7 @@
         <v>203</v>
       </c>
       <c r="E119" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120">
@@ -23271,7 +23292,7 @@
         <v>206</v>
       </c>
       <c r="E120" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121">
@@ -23288,7 +23309,7 @@
         <v>220</v>
       </c>
       <c r="E121" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122">
@@ -23305,7 +23326,7 @@
         <v>297</v>
       </c>
       <c r="E122" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123">
@@ -23322,7 +23343,7 @@
         <v>110</v>
       </c>
       <c r="E123" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124">
@@ -23339,7 +23360,7 @@
         <v>283</v>
       </c>
       <c r="E124" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125">
@@ -23356,7 +23377,7 @@
         <v>290</v>
       </c>
       <c r="E125" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126">
@@ -23373,7 +23394,7 @@
         <v>110</v>
       </c>
       <c r="E126" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127">
@@ -23390,7 +23411,7 @@
         <v>104</v>
       </c>
       <c r="E127" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128">
@@ -23407,7 +23428,7 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="129">
@@ -23424,7 +23445,7 @@
         <v>220</v>
       </c>
       <c r="E129" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="130">
@@ -23441,7 +23462,7 @@
         <v>283</v>
       </c>
       <c r="E130" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131">
@@ -23458,7 +23479,7 @@
         <v>215</v>
       </c>
       <c r="E131" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132">
@@ -23475,7 +23496,7 @@
         <v>275</v>
       </c>
       <c r="E132" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="133">
@@ -23492,7 +23513,7 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134">
@@ -23509,7 +23530,7 @@
         <v>111</v>
       </c>
       <c r="E134" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="135">
@@ -23526,7 +23547,7 @@
         <v>220</v>
       </c>
       <c r="E135" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="136">
@@ -23543,7 +23564,7 @@
         <v>106</v>
       </c>
       <c r="E136" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="137">
@@ -23560,7 +23581,7 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138">
@@ -23577,7 +23598,7 @@
         <v>220</v>
       </c>
       <c r="E138" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="139">
@@ -23594,7 +23615,7 @@
         <v>283</v>
       </c>
       <c r="E139" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="140">
@@ -23611,7 +23632,7 @@
         <v>107</v>
       </c>
       <c r="E140" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="141">
@@ -23628,7 +23649,7 @@
         <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142">
@@ -23645,7 +23666,7 @@
         <v>220</v>
       </c>
       <c r="E142" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143">
@@ -23662,7 +23683,7 @@
         <v>283</v>
       </c>
       <c r="E143" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144">
@@ -23679,7 +23700,7 @@
         <v>300</v>
       </c>
       <c r="E144" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="145">
@@ -23696,7 +23717,7 @@
         <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146">
@@ -23713,7 +23734,7 @@
         <v>108</v>
       </c>
       <c r="E146" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147">
@@ -23730,7 +23751,7 @@
         <v>107</v>
       </c>
       <c r="E147" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148">
@@ -23747,7 +23768,7 @@
         <v>216</v>
       </c>
       <c r="E148" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149">
@@ -23764,7 +23785,7 @@
         <v>217</v>
       </c>
       <c r="E149" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="150">
@@ -23781,7 +23802,7 @@
         <v>217</v>
       </c>
       <c r="E150" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="151">
@@ -23798,7 +23819,7 @@
         <v>37</v>
       </c>
       <c r="E151" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="152">
@@ -23815,7 +23836,7 @@
         <v>94</v>
       </c>
       <c r="E152" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153">
@@ -23832,7 +23853,7 @@
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="154">
@@ -23849,7 +23870,7 @@
         <v>17</v>
       </c>
       <c r="E154" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="155">
@@ -23866,7 +23887,7 @@
         <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="156">
@@ -23883,7 +23904,7 @@
         <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157">
@@ -23900,7 +23921,7 @@
         <v>144</v>
       </c>
       <c r="E157" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158">
@@ -23917,7 +23938,7 @@
         <v>146</v>
       </c>
       <c r="E158" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159">
@@ -23934,7 +23955,7 @@
         <v>147</v>
       </c>
       <c r="E159" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160">
@@ -23951,7 +23972,7 @@
         <v>148</v>
       </c>
       <c r="E160" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161">
@@ -23968,7 +23989,7 @@
         <v>149</v>
       </c>
       <c r="E161" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162">
@@ -23985,7 +24006,7 @@
         <v>150</v>
       </c>
       <c r="E162" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="163">
@@ -24002,7 +24023,7 @@
         <v>47</v>
       </c>
       <c r="E163" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164">
@@ -24019,7 +24040,7 @@
         <v>139</v>
       </c>
       <c r="E164" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="165">
@@ -24036,7 +24057,7 @@
         <v>87</v>
       </c>
       <c r="E165" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166">
@@ -24053,7 +24074,7 @@
         <v>88</v>
       </c>
       <c r="E166" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167">
@@ -24070,7 +24091,7 @@
         <v>88</v>
       </c>
       <c r="E167" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168">
@@ -24087,7 +24108,7 @@
         <v>97</v>
       </c>
       <c r="E168" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="169">
@@ -24104,7 +24125,7 @@
         <v>139</v>
       </c>
       <c r="E169" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170">
@@ -24121,7 +24142,7 @@
         <v>230</v>
       </c>
       <c r="E170" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171">
@@ -24138,7 +24159,7 @@
         <v>95</v>
       </c>
       <c r="E171" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="172">
@@ -24155,7 +24176,7 @@
         <v>166</v>
       </c>
       <c r="E172" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="173">
@@ -24172,7 +24193,7 @@
         <v>170</v>
       </c>
       <c r="E173" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="174">
@@ -24189,7 +24210,7 @@
         <v>94</v>
       </c>
       <c r="E174" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="175">
@@ -24206,7 +24227,7 @@
         <v>89</v>
       </c>
       <c r="E175" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="176">
@@ -24223,7 +24244,7 @@
         <v>234</v>
       </c>
       <c r="E176" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177">
@@ -24240,7 +24261,7 @@
         <v>237</v>
       </c>
       <c r="E177" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="178">
@@ -24257,7 +24278,7 @@
         <v>91</v>
       </c>
       <c r="E178" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179">
@@ -24274,7 +24295,7 @@
         <v>166</v>
       </c>
       <c r="E179" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180">
@@ -24291,7 +24312,7 @@
         <v>46</v>
       </c>
       <c r="E180" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181">
@@ -24308,7 +24329,7 @@
         <v>140</v>
       </c>
       <c r="E181" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="182">
@@ -24325,7 +24346,7 @@
         <v>92</v>
       </c>
       <c r="E182" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="183">
@@ -24342,7 +24363,7 @@
         <v>366</v>
       </c>
       <c r="E183" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184">
@@ -24359,7 +24380,7 @@
         <v>396</v>
       </c>
       <c r="E184" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185">
@@ -24376,7 +24397,7 @@
         <v>142</v>
       </c>
       <c r="E185" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186">
@@ -24393,7 +24414,7 @@
         <v>366</v>
       </c>
       <c r="E186" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187">
@@ -24410,7 +24431,7 @@
         <v>357</v>
       </c>
       <c r="E187" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188">
@@ -24427,7 +24448,7 @@
         <v>45</v>
       </c>
       <c r="E188" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189">
@@ -24444,7 +24465,7 @@
         <v>90</v>
       </c>
       <c r="E189" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190">
@@ -24461,7 +24482,7 @@
         <v>231</v>
       </c>
       <c r="E190" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191">
@@ -24478,7 +24499,7 @@
         <v>85</v>
       </c>
       <c r="E191" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="192">
@@ -24495,7 +24516,7 @@
         <v>169</v>
       </c>
       <c r="E192" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193">
@@ -24512,7 +24533,7 @@
         <v>91</v>
       </c>
       <c r="E193" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194">
@@ -24529,7 +24550,7 @@
         <v>379</v>
       </c>
       <c r="E194" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195">
@@ -24546,7 +24567,7 @@
         <v>366</v>
       </c>
       <c r="E195" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="196">
@@ -24563,7 +24584,7 @@
         <v>165</v>
       </c>
       <c r="E196" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="197">
@@ -24580,7 +24601,7 @@
         <v>94</v>
       </c>
       <c r="E197" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="198">
@@ -24597,7 +24618,7 @@
         <v>97</v>
       </c>
       <c r="E198" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="199">
@@ -24614,7 +24635,7 @@
         <v>96</v>
       </c>
       <c r="E199" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200">
@@ -24631,7 +24652,7 @@
         <v>97</v>
       </c>
       <c r="E200" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="201">
@@ -24648,7 +24669,7 @@
         <v>47</v>
       </c>
       <c r="E201" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="202">
@@ -24665,7 +24686,7 @@
         <v>231</v>
       </c>
       <c r="E202" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203">
@@ -24682,7 +24703,7 @@
         <v>88</v>
       </c>
       <c r="E203" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204">
@@ -24699,7 +24720,7 @@
         <v>62</v>
       </c>
       <c r="E204" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="205">
@@ -24716,7 +24737,7 @@
         <v>379</v>
       </c>
       <c r="E205" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="206">
@@ -24733,7 +24754,7 @@
         <v>366</v>
       </c>
       <c r="E206" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="207">
@@ -24750,7 +24771,7 @@
         <v>165</v>
       </c>
       <c r="E207" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208">
@@ -24767,7 +24788,7 @@
         <v>65</v>
       </c>
       <c r="E208" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="209">
@@ -24784,7 +24805,7 @@
         <v>64</v>
       </c>
       <c r="E209" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210">
@@ -24801,7 +24822,7 @@
         <v>167</v>
       </c>
       <c r="E210" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="211">
@@ -24818,7 +24839,7 @@
         <v>239</v>
       </c>
       <c r="E211" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212">
@@ -24835,7 +24856,7 @@
         <v>102</v>
       </c>
       <c r="E212" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213">
@@ -24852,7 +24873,7 @@
         <v>242</v>
       </c>
       <c r="E213" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="214">
@@ -24869,7 +24890,7 @@
         <v>66</v>
       </c>
       <c r="E214" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="215">
@@ -24886,7 +24907,7 @@
         <v>66</v>
       </c>
       <c r="E215" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216">
@@ -24903,7 +24924,7 @@
         <v>248</v>
       </c>
       <c r="E216" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217">
@@ -24920,7 +24941,7 @@
         <v>243</v>
       </c>
       <c r="E217" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218">
@@ -24937,7 +24958,7 @@
         <v>168</v>
       </c>
       <c r="E218" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219">
@@ -24954,7 +24975,7 @@
         <v>99</v>
       </c>
       <c r="E219" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220">
@@ -24971,7 +24992,7 @@
         <v>68</v>
       </c>
       <c r="E220" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221">
@@ -24988,7 +25009,7 @@
         <v>379</v>
       </c>
       <c r="E221" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222">
@@ -25005,7 +25026,7 @@
         <v>369</v>
       </c>
       <c r="E222" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223">
@@ -25022,7 +25043,7 @@
         <v>101</v>
       </c>
       <c r="E223" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224">
@@ -25039,7 +25060,7 @@
         <v>70</v>
       </c>
       <c r="E224" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225">
@@ -25056,7 +25077,7 @@
         <v>69</v>
       </c>
       <c r="E225" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226">
@@ -25073,7 +25094,7 @@
         <v>242</v>
       </c>
       <c r="E226" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227">
@@ -25090,7 +25111,7 @@
         <v>239</v>
       </c>
       <c r="E227" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="228">
@@ -25107,7 +25128,7 @@
         <v>70</v>
       </c>
       <c r="E228" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229">
@@ -25124,7 +25145,7 @@
         <v>214</v>
       </c>
       <c r="E229" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="230">
@@ -25141,7 +25162,7 @@
         <v>62</v>
       </c>
       <c r="E230" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="231">
@@ -25158,7 +25179,7 @@
         <v>69</v>
       </c>
       <c r="E231" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="232">
@@ -25175,7 +25196,7 @@
         <v>66</v>
       </c>
       <c r="E232" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="233">
@@ -25192,7 +25213,7 @@
         <v>71</v>
       </c>
       <c r="E233" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="234">
@@ -25209,7 +25230,7 @@
         <v>93</v>
       </c>
       <c r="E234" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235">
@@ -25226,7 +25247,7 @@
         <v>379</v>
       </c>
       <c r="E235" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236">
@@ -25243,7 +25264,7 @@
         <v>366</v>
       </c>
       <c r="E236" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="237">
@@ -25260,7 +25281,7 @@
         <v>165</v>
       </c>
       <c r="E237" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238">
@@ -25277,7 +25298,7 @@
         <v>72</v>
       </c>
       <c r="E238" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="239">
@@ -25294,7 +25315,7 @@
         <v>73</v>
       </c>
       <c r="E239" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="240">
@@ -25311,7 +25332,7 @@
         <v>74</v>
       </c>
       <c r="E240" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="241">
@@ -25328,7 +25349,7 @@
         <v>66</v>
       </c>
       <c r="E241" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="242">
@@ -25345,7 +25366,7 @@
         <v>66</v>
       </c>
       <c r="E242" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243">
@@ -25362,7 +25383,7 @@
         <v>167</v>
       </c>
       <c r="E243" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244">
@@ -25379,7 +25400,7 @@
         <v>102</v>
       </c>
       <c r="E244" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245">
@@ -25396,7 +25417,7 @@
         <v>75</v>
       </c>
       <c r="E245" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246">
@@ -25413,7 +25434,7 @@
         <v>76</v>
       </c>
       <c r="E246" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247">
@@ -25430,7 +25451,7 @@
         <v>67</v>
       </c>
       <c r="E247" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="248">
@@ -25447,7 +25468,7 @@
         <v>69</v>
       </c>
       <c r="E248" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="249">
@@ -25464,7 +25485,7 @@
         <v>167</v>
       </c>
       <c r="E249" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250">
@@ -25481,7 +25502,7 @@
         <v>246</v>
       </c>
       <c r="E250" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251">
@@ -25498,7 +25519,7 @@
         <v>156</v>
       </c>
       <c r="E251" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252">
@@ -25515,7 +25536,7 @@
         <v>50</v>
       </c>
       <c r="E252" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253">
@@ -25532,7 +25553,7 @@
         <v>60</v>
       </c>
       <c r="E253" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="254">
@@ -25549,7 +25570,7 @@
         <v>117</v>
       </c>
       <c r="E254" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="255">
@@ -25566,7 +25587,7 @@
         <v>52</v>
       </c>
       <c r="E255" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="256">
@@ -25583,7 +25604,7 @@
         <v>113</v>
       </c>
       <c r="E256" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="257">
@@ -25600,7 +25621,7 @@
         <v>50</v>
       </c>
       <c r="E257" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="258">
@@ -25617,7 +25638,7 @@
         <v>116</v>
       </c>
       <c r="E258" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="259">
@@ -25634,7 +25655,7 @@
         <v>114</v>
       </c>
       <c r="E259" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="260">
@@ -25651,7 +25672,7 @@
         <v>117</v>
       </c>
       <c r="E260" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261">
@@ -25668,7 +25689,7 @@
         <v>118</v>
       </c>
       <c r="E261" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="262">
@@ -25685,7 +25706,7 @@
         <v>120</v>
       </c>
       <c r="E262" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="263">
@@ -25702,7 +25723,7 @@
         <v>121</v>
       </c>
       <c r="E263" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="264">
@@ -25719,7 +25740,7 @@
         <v>256</v>
       </c>
       <c r="E264" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="265">
@@ -25736,7 +25757,7 @@
         <v>117</v>
       </c>
       <c r="E265" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="266">
@@ -25753,7 +25774,7 @@
         <v>54</v>
       </c>
       <c r="E266" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="267">
@@ -25770,7 +25791,7 @@
         <v>119</v>
       </c>
       <c r="E267" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="268">
@@ -25787,7 +25808,7 @@
         <v>255</v>
       </c>
       <c r="E268" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269">
@@ -25804,7 +25825,7 @@
         <v>256</v>
       </c>
       <c r="E269" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270">
@@ -25821,7 +25842,7 @@
         <v>78</v>
       </c>
       <c r="E270" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271">
@@ -25838,7 +25859,7 @@
         <v>79</v>
       </c>
       <c r="E271" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="272">
@@ -25855,7 +25876,7 @@
         <v>80</v>
       </c>
       <c r="E272" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="273">
@@ -25872,7 +25893,7 @@
         <v>82</v>
       </c>
       <c r="E273" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="274">
@@ -25889,7 +25910,7 @@
         <v>83</v>
       </c>
       <c r="E274" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="275">
@@ -25906,7 +25927,7 @@
         <v>152</v>
       </c>
       <c r="E275" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276">
@@ -25923,7 +25944,7 @@
         <v>100</v>
       </c>
       <c r="E276" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277">
@@ -25940,7 +25961,7 @@
         <v>155</v>
       </c>
       <c r="E277" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278">
@@ -25957,7 +25978,7 @@
         <v>157</v>
       </c>
       <c r="E278" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279">
@@ -25974,7 +25995,7 @@
         <v>161</v>
       </c>
       <c r="E279" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280">
@@ -25991,7 +26012,7 @@
         <v>100</v>
       </c>
       <c r="E280" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281">
@@ -26008,7 +26029,7 @@
         <v>376</v>
       </c>
       <c r="E281" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282">
@@ -26025,7 +26046,7 @@
         <v>158</v>
       </c>
       <c r="E282" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283">
@@ -26042,7 +26063,7 @@
         <v>159</v>
       </c>
       <c r="E283" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284">
@@ -26059,7 +26080,7 @@
         <v>160</v>
       </c>
       <c r="E284" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285">
@@ -26076,7 +26097,7 @@
         <v>373</v>
       </c>
       <c r="E285" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286">
@@ -26093,7 +26114,7 @@
         <v>370</v>
       </c>
       <c r="E286" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287">
@@ -26110,7 +26131,7 @@
         <v>153</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288">
@@ -26127,7 +26148,7 @@
         <v>161</v>
       </c>
       <c r="E288" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289">
@@ -26144,7 +26165,7 @@
         <v>373</v>
       </c>
       <c r="E289" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290">
@@ -26161,7 +26182,7 @@
         <v>376</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="291">
@@ -26178,7 +26199,7 @@
         <v>162</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="292">
@@ -26195,7 +26216,7 @@
         <v>163</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293">
@@ -26212,7 +26233,7 @@
         <v>300</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294">
@@ -26229,7 +26250,7 @@
         <v>291</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="295">
@@ -26246,7 +26267,7 @@
         <v>277</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="296">
@@ -26263,7 +26284,7 @@
         <v>283</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297">
@@ -26280,7 +26301,7 @@
         <v>275</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="298">
@@ -26297,7 +26318,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299">
@@ -26314,7 +26335,7 @@
         <v>294</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300">
@@ -26331,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="301">
@@ -26348,7 +26369,7 @@
         <v>284</v>
       </c>
       <c r="E301" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="302">
@@ -26365,7 +26386,7 @@
         <v>296</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="303">
@@ -26382,7 +26403,7 @@
         <v>339</v>
       </c>
       <c r="E303" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304">
@@ -26399,7 +26420,7 @@
         <v>343</v>
       </c>
       <c r="E304" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="305">
@@ -26416,7 +26437,7 @@
         <v>335</v>
       </c>
       <c r="E305" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="306">
@@ -26433,7 +26454,7 @@
         <v>342</v>
       </c>
       <c r="E306" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="307">
@@ -26450,7 +26471,7 @@
         <v>340</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="308">
@@ -26467,7 +26488,7 @@
         <v>299</v>
       </c>
       <c r="E308" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="309">
@@ -26484,7 +26505,7 @@
         <v>294</v>
       </c>
       <c r="E309" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="310">
@@ -26501,7 +26522,7 @@
         <v>289</v>
       </c>
       <c r="E310" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311">
@@ -26518,7 +26539,7 @@
         <v>284</v>
       </c>
       <c r="E311" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312">
@@ -26535,7 +26556,7 @@
         <v>296</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313">
@@ -26552,7 +26573,7 @@
         <v>345</v>
       </c>
       <c r="E313" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314">
@@ -26569,7 +26590,7 @@
         <v>349</v>
       </c>
       <c r="E314" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315">
@@ -26586,7 +26607,7 @@
         <v>355</v>
       </c>
       <c r="E315" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316">
@@ -26603,7 +26624,7 @@
         <v>350</v>
       </c>
       <c r="E316" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317">
@@ -26620,7 +26641,7 @@
         <v>328</v>
       </c>
       <c r="E317" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="318">
@@ -26637,7 +26658,7 @@
         <v>327</v>
       </c>
       <c r="E318" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319">
@@ -26654,7 +26675,7 @@
         <v>358</v>
       </c>
       <c r="E319" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320">
@@ -26671,7 +26692,7 @@
         <v>361</v>
       </c>
       <c r="E320" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="321">
@@ -26688,7 +26709,7 @@
         <v>359</v>
       </c>
       <c r="E321" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="322">
@@ -26705,7 +26726,7 @@
         <v>354</v>
       </c>
       <c r="E322" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="323">
@@ -26722,7 +26743,7 @@
         <v>340</v>
       </c>
       <c r="E323" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="324">
@@ -26739,7 +26760,7 @@
         <v>362</v>
       </c>
       <c r="E324" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="325">
@@ -26756,7 +26777,7 @@
         <v>317</v>
       </c>
       <c r="E325" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="326">
@@ -26773,7 +26794,7 @@
         <v>299</v>
       </c>
       <c r="E326" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="327">
@@ -26790,7 +26811,7 @@
         <v>294</v>
       </c>
       <c r="E327" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="328">
@@ -26807,7 +26828,7 @@
         <v>289</v>
       </c>
       <c r="E328" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329">
@@ -26824,7 +26845,7 @@
         <v>284</v>
       </c>
       <c r="E329" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="330">
@@ -26841,7 +26862,7 @@
         <v>296</v>
       </c>
       <c r="E330" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="331">
@@ -26858,7 +26879,7 @@
         <v>367</v>
       </c>
       <c r="E331" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="332">
@@ -26875,7 +26896,7 @@
         <v>345</v>
       </c>
       <c r="E332" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="333">
@@ -26892,7 +26913,7 @@
         <v>373</v>
       </c>
       <c r="E333" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="334">
@@ -26909,7 +26930,7 @@
         <v>370</v>
       </c>
       <c r="E334" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="335">
@@ -26926,7 +26947,7 @@
         <v>376</v>
       </c>
       <c r="E335" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="336">
@@ -26943,7 +26964,7 @@
         <v>374</v>
       </c>
       <c r="E336" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="337">
@@ -26960,7 +26981,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="338">
@@ -26977,7 +26998,7 @@
         <v>299</v>
       </c>
       <c r="E338" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="339">
@@ -26994,7 +27015,7 @@
         <v>294</v>
       </c>
       <c r="E339" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="340">
@@ -27011,7 +27032,7 @@
         <v>289</v>
       </c>
       <c r="E340" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="341">
@@ -27028,7 +27049,7 @@
         <v>284</v>
       </c>
       <c r="E341" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="342">
@@ -27045,7 +27066,7 @@
         <v>296</v>
       </c>
       <c r="E342" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="343">
@@ -27062,7 +27083,7 @@
         <v>380</v>
       </c>
       <c r="E343" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344">
@@ -27079,7 +27100,7 @@
         <v>373</v>
       </c>
       <c r="E344" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="345">
@@ -27096,7 +27117,7 @@
         <v>367</v>
       </c>
       <c r="E345" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="346">
@@ -27113,7 +27134,7 @@
         <v>397</v>
       </c>
       <c r="E346" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="347">
@@ -27130,7 +27151,7 @@
         <v>380</v>
       </c>
       <c r="E347" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="348">
@@ -27147,7 +27168,7 @@
         <v>367</v>
       </c>
       <c r="E348" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -27165,19 +27186,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" t="s">
         <v>577</v>
-      </c>
-      <c r="B1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D1" t="s">
-        <v>569</v>
-      </c>
-      <c r="E1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2">
@@ -27194,7 +27215,7 @@
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3">
@@ -27211,7 +27232,7 @@
         <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
@@ -27228,7 +27249,7 @@
         <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -27245,7 +27266,7 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
@@ -27262,7 +27283,7 @@
         <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
@@ -27279,7 +27300,7 @@
         <v>291</v>
       </c>
       <c r="E7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8">
@@ -27296,7 +27317,7 @@
         <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9">
@@ -27313,7 +27334,7 @@
         <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -27330,7 +27351,7 @@
         <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11">
@@ -27347,7 +27368,7 @@
         <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12">
@@ -27364,7 +27385,7 @@
         <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13">
@@ -27381,7 +27402,7 @@
         <v>291</v>
       </c>
       <c r="E13" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
@@ -27398,7 +27419,7 @@
         <v>298</v>
       </c>
       <c r="E14" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
@@ -27415,7 +27436,7 @@
         <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16">
@@ -27432,7 +27453,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
@@ -27440,7 +27461,7 @@
         <v>494</v>
       </c>
       <c r="B17" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
         <v>264</v>
@@ -27449,7 +27470,7 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
@@ -27457,7 +27478,7 @@
         <v>494</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
         <v>264</v>
@@ -27466,7 +27487,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
@@ -27474,7 +27495,7 @@
         <v>494</v>
       </c>
       <c r="B19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C19" t="s">
         <v>271</v>
@@ -27483,7 +27504,7 @@
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20">
@@ -27500,7 +27521,7 @@
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21">
@@ -27508,7 +27529,7 @@
         <v>494</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C21" t="s">
         <v>264</v>
@@ -27517,7 +27538,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22">
@@ -27525,7 +27546,7 @@
         <v>494</v>
       </c>
       <c r="B22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C22" t="s">
         <v>264</v>
@@ -27534,15 +27555,15 @@
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C23" t="s">
         <v>269</v>
@@ -27551,15 +27572,15 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
         <v>269</v>
@@ -27568,15 +27589,15 @@
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B25" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="C25" t="s">
         <v>269</v>
@@ -27585,12 +27606,12 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B26" t="s">
         <v>491</v>
@@ -27602,15 +27623,15 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B27" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C27" t="s">
         <v>269</v>
@@ -27619,15 +27640,15 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B28" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C28" t="s">
         <v>266</v>
@@ -27636,15 +27657,15 @@
         <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B29" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C29" t="s">
         <v>266</v>
@@ -27653,15 +27674,15 @@
         <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B30" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C30" t="s">
         <v>266</v>
@@ -27670,15 +27691,15 @@
         <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C31" t="s">
         <v>266</v>
@@ -27687,15 +27708,15 @@
         <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C32" t="s">
         <v>266</v>
@@ -27704,15 +27725,15 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C33" t="s">
         <v>266</v>
@@ -27721,12 +27742,12 @@
         <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B34" t="s">
         <v>486</v>
@@ -27738,12 +27759,12 @@
         <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B35" t="s">
         <v>486</v>
@@ -27755,15 +27776,15 @@
         <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B36" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C36" t="s">
         <v>266</v>
@@ -27772,15 +27793,15 @@
         <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B37" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C37" t="s">
         <v>266</v>
@@ -27789,15 +27810,15 @@
         <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B38" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C38" t="s">
         <v>266</v>
@@ -27806,15 +27827,15 @@
         <v>234</v>
       </c>
       <c r="E38" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C39" t="s">
         <v>266</v>
@@ -27823,15 +27844,15 @@
         <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B40" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C40" t="s">
         <v>266</v>
@@ -27840,15 +27861,15 @@
         <v>236</v>
       </c>
       <c r="E40" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B41" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C41" t="s">
         <v>267</v>
@@ -27857,12 +27878,12 @@
         <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B42" t="s">
         <v>491</v>
@@ -27874,15 +27895,15 @@
         <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B43" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C43" t="s">
         <v>266</v>
@@ -27891,15 +27912,15 @@
         <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B44" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C44" t="s">
         <v>266</v>
@@ -27908,15 +27929,15 @@
         <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B45" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C45" t="s">
         <v>266</v>
@@ -27925,15 +27946,15 @@
         <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B46" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C46" t="s">
         <v>266</v>
@@ -27942,15 +27963,15 @@
         <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B47" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C47" t="s">
         <v>266</v>
@@ -27959,15 +27980,15 @@
         <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B48" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C48" t="s">
         <v>267</v>
@@ -27976,15 +27997,15 @@
         <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B49" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C49" t="s">
         <v>266</v>
@@ -27993,15 +28014,15 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B50" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C50" t="s">
         <v>266</v>
@@ -28010,15 +28031,15 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B51" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C51" t="s">
         <v>266</v>
@@ -28027,15 +28048,15 @@
         <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B52" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C52" t="s">
         <v>266</v>
@@ -28044,15 +28065,15 @@
         <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B53" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C53" t="s">
         <v>266</v>
@@ -28061,15 +28082,15 @@
         <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C54" t="s">
         <v>267</v>
@@ -28078,15 +28099,15 @@
         <v>240</v>
       </c>
       <c r="E54" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B55" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C55" t="s">
         <v>267</v>
@@ -28095,15 +28116,15 @@
         <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B56" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C56" t="s">
         <v>267</v>
@@ -28112,15 +28133,15 @@
         <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B57" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C57" t="s">
         <v>267</v>
@@ -28129,15 +28150,15 @@
         <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B58" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C58" t="s">
         <v>267</v>
@@ -28146,15 +28167,15 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B59" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C59" t="s">
         <v>267</v>
@@ -28163,15 +28184,15 @@
         <v>245</v>
       </c>
       <c r="E59" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B60" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C60" t="s">
         <v>267</v>
@@ -28180,15 +28201,15 @@
         <v>253</v>
       </c>
       <c r="E60" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B61" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C61" t="s">
         <v>267</v>
@@ -28197,15 +28218,15 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B62" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C62" t="s">
         <v>267</v>
@@ -28214,15 +28235,15 @@
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B63" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C63" t="s">
         <v>263</v>
@@ -28231,15 +28252,15 @@
         <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B64" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C64" t="s">
         <v>263</v>
@@ -28248,15 +28269,15 @@
         <v>204</v>
       </c>
       <c r="E64" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B65" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C65" t="s">
         <v>263</v>
@@ -28265,15 +28286,15 @@
         <v>205</v>
       </c>
       <c r="E65" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B66" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C66" t="s">
         <v>263</v>
@@ -28282,15 +28303,15 @@
         <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C67" t="s">
         <v>263</v>
@@ -28299,15 +28320,15 @@
         <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C68" t="s">
         <v>263</v>
@@ -28316,15 +28337,15 @@
         <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C69" t="s">
         <v>263</v>
@@ -28333,12 +28354,12 @@
         <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B70" t="s">
         <v>486</v>
@@ -28350,12 +28371,12 @@
         <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B71" t="s">
         <v>486</v>
@@ -28367,15 +28388,15 @@
         <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B72" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C72" t="s">
         <v>263</v>
@@ -28384,15 +28405,15 @@
         <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C73" t="s">
         <v>263</v>
@@ -28401,15 +28422,15 @@
         <v>131</v>
       </c>
       <c r="E73" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B74" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C74" t="s">
         <v>263</v>
@@ -28418,15 +28439,15 @@
         <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B75" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C75" t="s">
         <v>263</v>
@@ -28435,15 +28456,15 @@
         <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C76" t="s">
         <v>263</v>
@@ -28452,15 +28473,15 @@
         <v>205</v>
       </c>
       <c r="E76" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C77" t="s">
         <v>263</v>
@@ -28469,15 +28490,15 @@
         <v>208</v>
       </c>
       <c r="E77" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C78" t="s">
         <v>263</v>
@@ -28486,15 +28507,15 @@
         <v>207</v>
       </c>
       <c r="E78" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C79" t="s">
         <v>263</v>
@@ -28503,15 +28524,15 @@
         <v>124</v>
       </c>
       <c r="E79" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C80" t="s">
         <v>263</v>
@@ -28520,15 +28541,15 @@
         <v>125</v>
       </c>
       <c r="E80" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C81" t="s">
         <v>263</v>
@@ -28537,15 +28558,15 @@
         <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C82" t="s">
         <v>270</v>
@@ -28554,15 +28575,15 @@
         <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C83" t="s">
         <v>270</v>
@@ -28571,15 +28592,15 @@
         <v>177</v>
       </c>
       <c r="E83" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B84" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C84" t="s">
         <v>270</v>
@@ -28588,15 +28609,15 @@
         <v>179</v>
       </c>
       <c r="E84" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C85" t="s">
         <v>270</v>
@@ -28605,15 +28626,15 @@
         <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B86" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="C86" t="s">
         <v>271</v>
@@ -28622,12 +28643,12 @@
         <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B87" t="s">
         <v>486</v>
@@ -28639,12 +28660,12 @@
         <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B88" t="s">
         <v>488</v>
@@ -28656,15 +28677,15 @@
         <v>258</v>
       </c>
       <c r="E88" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B89" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C89" t="s">
         <v>271</v>
@@ -28673,12 +28694,12 @@
         <v>120</v>
       </c>
       <c r="E89" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s">
         <v>491</v>
@@ -28690,15 +28711,15 @@
         <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C91" t="s">
         <v>271</v>
@@ -28707,15 +28728,15 @@
         <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C92" t="s">
         <v>271</v>
@@ -28724,15 +28745,15 @@
         <v>121</v>
       </c>
       <c r="E92" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B93" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C93" t="s">
         <v>271</v>
@@ -28741,15 +28762,15 @@
         <v>116</v>
       </c>
       <c r="E93" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B94" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C94" t="s">
         <v>271</v>
@@ -28758,15 +28779,15 @@
         <v>257</v>
       </c>
       <c r="E94" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B95" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C95" t="s">
         <v>271</v>
@@ -28775,15 +28796,15 @@
         <v>113</v>
       </c>
       <c r="E95" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B96" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C96" t="s">
         <v>265</v>
@@ -28792,15 +28813,15 @@
         <v>262</v>
       </c>
       <c r="E96" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B97" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C97" t="s">
         <v>154</v>
@@ -28809,15 +28830,15 @@
         <v>376</v>
       </c>
       <c r="E97" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B98" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C98" t="s">
         <v>265</v>
@@ -28826,15 +28847,15 @@
         <v>261</v>
       </c>
       <c r="E98" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B99" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C99" t="s">
         <v>154</v>
@@ -28843,15 +28864,15 @@
         <v>295</v>
       </c>
       <c r="E99" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B100" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C100" t="s">
         <v>265</v>
@@ -28860,15 +28881,15 @@
         <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B101" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C101" t="s">
         <v>265</v>
@@ -28877,12 +28898,12 @@
         <v>155</v>
       </c>
       <c r="E101" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B102" t="s">
         <v>486</v>
@@ -28894,12 +28915,12 @@
         <v>161</v>
       </c>
       <c r="E102" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B103" t="s">
         <v>491</v>
@@ -28911,15 +28932,15 @@
         <v>158</v>
       </c>
       <c r="E103" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B104" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="C104" t="s">
         <v>265</v>
@@ -28928,15 +28949,15 @@
         <v>155</v>
       </c>
       <c r="E104" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B105" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C105" t="s">
         <v>265</v>
@@ -28945,15 +28966,15 @@
         <v>262</v>
       </c>
       <c r="E105" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B106" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C106" t="s">
         <v>154</v>
@@ -28962,15 +28983,15 @@
         <v>376</v>
       </c>
       <c r="E106" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B107" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C107" t="s">
         <v>265</v>
@@ -28979,15 +29000,15 @@
         <v>261</v>
       </c>
       <c r="E107" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B108" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C108" t="s">
         <v>154</v>
@@ -28996,15 +29017,15 @@
         <v>298</v>
       </c>
       <c r="E108" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B109" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C109" t="s">
         <v>265</v>
@@ -29013,15 +29034,15 @@
         <v>163</v>
       </c>
       <c r="E109" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B110" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C110" t="s">
         <v>265</v>
@@ -29030,15 +29051,15 @@
         <v>160</v>
       </c>
       <c r="E110" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B111" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C111" t="s">
         <v>267</v>
@@ -29047,15 +29068,15 @@
         <v>248</v>
       </c>
       <c r="E111" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C112" t="s">
         <v>267</v>
@@ -29064,15 +29085,15 @@
         <v>243</v>
       </c>
       <c r="E112" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B113" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C113" t="s">
         <v>267</v>
@@ -29081,15 +29102,15 @@
         <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B114" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="C114" t="s">
         <v>267</v>
@@ -29098,12 +29119,12 @@
         <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B115" t="s">
         <v>486</v>
@@ -29115,12 +29136,12 @@
         <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B116" t="s">
         <v>486</v>
@@ -29132,12 +29153,12 @@
         <v>89</v>
       </c>
       <c r="E116" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B117" t="s">
         <v>486</v>
@@ -29149,12 +29170,12 @@
         <v>160</v>
       </c>
       <c r="E117" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B118" t="s">
         <v>486</v>
@@ -29166,12 +29187,12 @@
         <v>73</v>
       </c>
       <c r="E118" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B119" t="s">
         <v>486</v>
@@ -29183,15 +29204,15 @@
         <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B120" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C120" t="s">
         <v>267</v>
@@ -29200,15 +29221,15 @@
         <v>248</v>
       </c>
       <c r="E120" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C121" t="s">
         <v>267</v>
@@ -29217,15 +29238,15 @@
         <v>243</v>
       </c>
       <c r="E121" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B122" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C122" t="s">
         <v>267</v>
@@ -29234,15 +29255,15 @@
         <v>240</v>
       </c>
       <c r="E122" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B123" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C123" t="s">
         <v>267</v>
@@ -29251,15 +29272,15 @@
         <v>250</v>
       </c>
       <c r="E123" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B124" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C124" t="s">
         <v>267</v>
@@ -29268,15 +29289,15 @@
         <v>66</v>
       </c>
       <c r="E124" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B125" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C125" t="s">
         <v>267</v>
@@ -29285,15 +29306,15 @@
         <v>244</v>
       </c>
       <c r="E125" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B126" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C126" t="s">
         <v>267</v>
@@ -29302,15 +29323,15 @@
         <v>74</v>
       </c>
       <c r="E126" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B127" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C127" t="s">
         <v>267</v>
@@ -29319,15 +29340,15 @@
         <v>240</v>
       </c>
       <c r="E127" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B128" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C128" t="s">
         <v>267</v>
@@ -29336,15 +29357,15 @@
         <v>250</v>
       </c>
       <c r="E128" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B129" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C129" t="s">
         <v>267</v>
@@ -29353,15 +29374,15 @@
         <v>69</v>
       </c>
       <c r="E129" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B130" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C130" t="s">
         <v>267</v>
@@ -29370,15 +29391,15 @@
         <v>73</v>
       </c>
       <c r="E130" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B131" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C131" t="s">
         <v>266</v>
@@ -29387,15 +29408,15 @@
         <v>229</v>
       </c>
       <c r="E131" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B132" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C132" t="s">
         <v>171</v>
@@ -29404,15 +29425,15 @@
         <v>174</v>
       </c>
       <c r="E132" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B133" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C133" t="s">
         <v>171</v>
@@ -29421,15 +29442,15 @@
         <v>172</v>
       </c>
       <c r="E133" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B134" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C134" t="s">
         <v>267</v>
@@ -29438,12 +29459,12 @@
         <v>73</v>
       </c>
       <c r="E134" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B135" t="s">
         <v>491</v>
@@ -29455,12 +29476,12 @@
         <v>68</v>
       </c>
       <c r="E135" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B136" t="s">
         <v>247</v>
@@ -29472,12 +29493,12 @@
         <v>248</v>
       </c>
       <c r="E136" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B137" t="s">
         <v>247</v>
@@ -29489,12 +29510,12 @@
         <v>243</v>
       </c>
       <c r="E137" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B138" t="s">
         <v>247</v>
@@ -29506,15 +29527,15 @@
         <v>247</v>
       </c>
       <c r="E138" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B139" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
         <v>267</v>
@@ -29523,15 +29544,15 @@
         <v>70</v>
       </c>
       <c r="E139" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B140" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C140" t="s">
         <v>267</v>
@@ -29540,15 +29561,15 @@
         <v>62</v>
       </c>
       <c r="E140" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B141" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C141" t="s">
         <v>171</v>
@@ -29557,15 +29578,15 @@
         <v>174</v>
       </c>
       <c r="E141" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B142" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C142" t="s">
         <v>171</v>
@@ -29574,15 +29595,15 @@
         <v>172</v>
       </c>
       <c r="E142" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B143" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C143" t="s">
         <v>268</v>
@@ -29591,15 +29612,15 @@
         <v>214</v>
       </c>
       <c r="E143" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B144" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C144" t="s">
         <v>267</v>
@@ -29608,15 +29629,15 @@
         <v>74</v>
       </c>
       <c r="E144" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B145" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C145" t="s">
         <v>267</v>
@@ -29625,15 +29646,15 @@
         <v>251</v>
       </c>
       <c r="E145" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B146" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C146" t="s">
         <v>267</v>
@@ -29642,15 +29663,15 @@
         <v>243</v>
       </c>
       <c r="E146" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B147" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C147" t="s">
         <v>267</v>
@@ -29659,12 +29680,12 @@
         <v>252</v>
       </c>
       <c r="E147" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B148" t="s">
         <v>486</v>
@@ -29676,15 +29697,15 @@
         <v>144</v>
       </c>
       <c r="E148" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B149" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C149" t="s">
         <v>145</v>
@@ -29693,15 +29714,15 @@
         <v>298</v>
       </c>
       <c r="E149" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B150" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C150" t="s">
         <v>273</v>
@@ -29710,15 +29731,15 @@
         <v>150</v>
       </c>
       <c r="E150" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B151" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s">
         <v>145</v>
@@ -29727,15 +29748,15 @@
         <v>295</v>
       </c>
       <c r="E151" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B152" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C152" t="s">
         <v>273</v>
@@ -29744,12 +29765,12 @@
         <v>148</v>
       </c>
       <c r="E152" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B153" t="s">
         <v>491</v>
@@ -29761,15 +29782,15 @@
         <v>147</v>
       </c>
       <c r="E153" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B154" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C154" t="s">
         <v>273</v>
@@ -29778,15 +29799,15 @@
         <v>149</v>
       </c>
       <c r="E154" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B155" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C155" t="s">
         <v>274</v>
@@ -29795,15 +29816,15 @@
         <v>200</v>
       </c>
       <c r="E155" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B156" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C156" t="s">
         <v>35</v>
@@ -29812,15 +29833,15 @@
         <v>349</v>
       </c>
       <c r="E156" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B157" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C157" t="s">
         <v>35</v>
@@ -29829,15 +29850,15 @@
         <v>358</v>
       </c>
       <c r="E157" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B158" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C158" t="s">
         <v>35</v>
@@ -29846,15 +29867,15 @@
         <v>328</v>
       </c>
       <c r="E158" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B159" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C159" t="s">
         <v>35</v>
@@ -29863,15 +29884,15 @@
         <v>298</v>
       </c>
       <c r="E159" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B160" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C160" t="s">
         <v>274</v>
@@ -29880,15 +29901,15 @@
         <v>33</v>
       </c>
       <c r="E160" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B161" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C161" t="s">
         <v>274</v>
@@ -29897,15 +29918,15 @@
         <v>199</v>
       </c>
       <c r="E161" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B162" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C162" t="s">
         <v>274</v>
@@ -29914,15 +29935,15 @@
         <v>184</v>
       </c>
       <c r="E162" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B163" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C163" t="s">
         <v>274</v>
@@ -29931,15 +29952,15 @@
         <v>183</v>
       </c>
       <c r="E163" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B164" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C164" t="s">
         <v>274</v>
@@ -29948,15 +29969,15 @@
         <v>32</v>
       </c>
       <c r="E164" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B165" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C165" t="s">
         <v>274</v>
@@ -29965,15 +29986,15 @@
         <v>48</v>
       </c>
       <c r="E165" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B166" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C166" t="s">
         <v>274</v>
@@ -29982,12 +30003,12 @@
         <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B167" t="s">
         <v>486</v>
@@ -29999,15 +30020,15 @@
         <v>34</v>
       </c>
       <c r="E167" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B168" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C168" t="s">
         <v>274</v>
@@ -30016,15 +30037,15 @@
         <v>193</v>
       </c>
       <c r="E168" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B169" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C169" t="s">
         <v>274</v>
@@ -30033,15 +30054,15 @@
         <v>183</v>
       </c>
       <c r="E169" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B170" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C170" t="s">
         <v>274</v>
@@ -30050,15 +30071,15 @@
         <v>200</v>
       </c>
       <c r="E170" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B171" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -30067,15 +30088,15 @@
         <v>349</v>
       </c>
       <c r="E171" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B172" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -30084,15 +30105,15 @@
         <v>358</v>
       </c>
       <c r="E172" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B173" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
@@ -30101,15 +30122,15 @@
         <v>328</v>
       </c>
       <c r="E173" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B174" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -30118,15 +30139,15 @@
         <v>345</v>
       </c>
       <c r="E174" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B175" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C175" t="s">
         <v>35</v>
@@ -30135,15 +30156,15 @@
         <v>355</v>
       </c>
       <c r="E175" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B176" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C176" t="s">
         <v>35</v>
@@ -30152,15 +30173,15 @@
         <v>295</v>
       </c>
       <c r="E176" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B177" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C177" t="s">
         <v>274</v>
@@ -30169,15 +30190,15 @@
         <v>38</v>
       </c>
       <c r="E177" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B178" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C178" t="s">
         <v>274</v>
@@ -30186,15 +30207,15 @@
         <v>193</v>
       </c>
       <c r="E178" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B179" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C179" t="s">
         <v>274</v>
@@ -30203,15 +30224,15 @@
         <v>30</v>
       </c>
       <c r="E179" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B180" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C180" t="s">
         <v>274</v>
@@ -30220,15 +30241,15 @@
         <v>201</v>
       </c>
       <c r="E180" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B181" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C181" t="s">
         <v>272</v>
@@ -30237,15 +30258,15 @@
         <v>79</v>
       </c>
       <c r="E181" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B182" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C182" t="s">
         <v>272</v>
@@ -30254,12 +30275,12 @@
         <v>82</v>
       </c>
       <c r="E182" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B183" t="s">
         <v>491</v>
@@ -30271,15 +30292,15 @@
         <v>78</v>
       </c>
       <c r="E183" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B184" t="s">
-        <v>489</v>
+        <v>571</v>
       </c>
       <c r="C184" t="s">
         <v>272</v>
@@ -30288,15 +30309,15 @@
         <v>82</v>
       </c>
       <c r="E184" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B185" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C185" t="s">
         <v>272</v>
@@ -30305,7 +30326,7 @@
         <v>83</v>
       </c>
       <c r="E185" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -30323,19 +30344,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D1" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -30353,19 +30374,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" t="s">
         <v>577</v>
-      </c>
-      <c r="B1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E1" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -30383,19 +30404,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D1" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="E1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -30413,19 +30434,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" t="s">
         <v>577</v>
-      </c>
-      <c r="B1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E1" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
